--- a/Code/Results/Cases/Case_9_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.869090591705742</v>
+        <v>3.457262170408171</v>
       </c>
       <c r="C2">
-        <v>1.104745911581944</v>
+        <v>1.007702210158641</v>
       </c>
       <c r="D2">
-        <v>0.3278482989888687</v>
+        <v>0.3492156199738474</v>
       </c>
       <c r="E2">
-        <v>1.498654169906317</v>
+        <v>1.343180230842464</v>
       </c>
       <c r="F2">
-        <v>6.635873520255558</v>
+        <v>6.463794665469322</v>
       </c>
       <c r="G2">
-        <v>0.0007437127231291205</v>
+        <v>0.0007918837209675011</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.009995295743722019</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002670933310996659</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -462,34 +468,40 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.292915343289508</v>
+        <v>2.997853015548628</v>
       </c>
       <c r="C3">
-        <v>0.9385230912519091</v>
+        <v>0.869853693225707</v>
       </c>
       <c r="D3">
-        <v>0.2856247266611547</v>
+        <v>0.3064966316520383</v>
       </c>
       <c r="E3">
-        <v>1.26642903220683</v>
+        <v>1.155751310872887</v>
       </c>
       <c r="F3">
-        <v>5.740628530079618</v>
+        <v>5.654258087503649</v>
       </c>
       <c r="G3">
-        <v>0.000757803057901766</v>
+        <v>0.0007995267261627653</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00566132105441941</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0006838291904367466</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -509,34 +521,40 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.951327824156692</v>
+        <v>2.717878933285135</v>
       </c>
       <c r="C4">
-        <v>0.8401863449115581</v>
+        <v>0.7870470786523356</v>
       </c>
       <c r="D4">
-        <v>0.2607697280726882</v>
+        <v>0.2802437474734631</v>
       </c>
       <c r="E4">
-        <v>1.130126361199331</v>
+        <v>1.042418103720038</v>
       </c>
       <c r="F4">
-        <v>5.211660616999353</v>
+        <v>5.159655295851422</v>
       </c>
       <c r="G4">
-        <v>0.0007665192320742595</v>
+        <v>0.00080432863316101</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.003562661497822361</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0004342247631967666</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -556,34 +574,40 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.814651053569776</v>
+        <v>2.604150420224698</v>
       </c>
       <c r="C5">
-        <v>0.8008737998413835</v>
+        <v>0.7552167163809997</v>
       </c>
       <c r="D5">
-        <v>0.2508628126613104</v>
+        <v>0.2683125171909211</v>
       </c>
       <c r="E5">
-        <v>1.075863128695488</v>
+        <v>0.9965441341777392</v>
       </c>
       <c r="F5">
-        <v>5.000427111763315</v>
+        <v>4.944718871251297</v>
       </c>
       <c r="G5">
-        <v>0.0007700955535800399</v>
+        <v>0.0008063365970838446</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00283109922356406</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000622890166188661</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -603,34 +627,40 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.792094130573673</v>
+        <v>2.585207879043878</v>
       </c>
       <c r="C6">
-        <v>0.7943873037310141</v>
+        <v>0.7518079961090791</v>
       </c>
       <c r="D6">
-        <v>0.2492299167691385</v>
+        <v>0.2648516623235935</v>
       </c>
       <c r="E6">
-        <v>1.066922367830301</v>
+        <v>0.9888719871438241</v>
       </c>
       <c r="F6">
-        <v>4.965589858726418</v>
+        <v>4.892255946361189</v>
       </c>
       <c r="G6">
-        <v>0.0007706910880035404</v>
+        <v>0.0008066988388415279</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002711539273524188</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0007586302123687716</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -650,34 +680,40 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.949474991803129</v>
+        <v>2.716100113317282</v>
       </c>
       <c r="C7">
-        <v>0.8396532948888478</v>
+        <v>0.7916813407236987</v>
       </c>
       <c r="D7">
-        <v>0.2606352797066194</v>
+        <v>0.2760110113271139</v>
       </c>
       <c r="E7">
-        <v>1.12938971838085</v>
+        <v>1.041580167724106</v>
       </c>
       <c r="F7">
-        <v>5.208795406155929</v>
+        <v>5.110605349627804</v>
       </c>
       <c r="G7">
-        <v>0.0007665673549488928</v>
+        <v>0.0008044293528601984</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.00353482695453966</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0006621355425160402</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -697,34 +733,40 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.6675410122877</v>
+        <v>3.297930760598206</v>
       </c>
       <c r="C8">
-        <v>1.046543339692192</v>
+        <v>0.9664754913100921</v>
       </c>
       <c r="D8">
-        <v>0.3130363585852933</v>
+        <v>0.3289524093292329</v>
       </c>
       <c r="E8">
-        <v>1.41708081146524</v>
+        <v>1.277802295241244</v>
       </c>
       <c r="F8">
-        <v>6.322315476670298</v>
+        <v>6.121670233424283</v>
       </c>
       <c r="G8">
-        <v>0.0007485629914414371</v>
+        <v>0.0007945947571169861</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.00834023203055928</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001998973943032389</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -744,34 +786,40 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.202712292611295</v>
+        <v>4.461276162754871</v>
       </c>
       <c r="C9">
-        <v>1.491766529190727</v>
+        <v>1.317628976875312</v>
       </c>
       <c r="D9">
-        <v>0.4269393464070106</v>
+        <v>0.4409129175473083</v>
       </c>
       <c r="E9">
-        <v>2.048269869643008</v>
+        <v>1.758791490145597</v>
       </c>
       <c r="F9">
-        <v>8.719465186564719</v>
+        <v>8.221729476999883</v>
       </c>
       <c r="G9">
-        <v>0.0007133136491433303</v>
+        <v>0.0007759650060087116</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02293966575955908</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01318788530029646</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -791,34 +839,40 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.463671731928628</v>
+        <v>5.332556541617578</v>
       </c>
       <c r="C10">
-        <v>1.861408775469329</v>
+        <v>1.589096750276838</v>
       </c>
       <c r="D10">
-        <v>0.5222620816065842</v>
+        <v>0.5003877811189454</v>
       </c>
       <c r="E10">
-        <v>2.585351906101806</v>
+        <v>2.021280822810638</v>
       </c>
       <c r="F10">
-        <v>10.7001295017497</v>
+        <v>9.52940342855976</v>
       </c>
       <c r="G10">
-        <v>0.0006866164722787164</v>
+        <v>0.0007632755018147897</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.03654587955837574</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.02786243332301552</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -838,34 +892,40 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.08447099076642</v>
+        <v>5.696287717332439</v>
       </c>
       <c r="C11">
-        <v>2.044950820287738</v>
+        <v>1.68929629314573</v>
       </c>
       <c r="D11">
-        <v>0.5697417279156696</v>
+        <v>0.3475534396946358</v>
       </c>
       <c r="E11">
-        <v>2.856771504377136</v>
+        <v>1.319623735495057</v>
       </c>
       <c r="F11">
-        <v>11.67785285994654</v>
+        <v>7.984121445527933</v>
       </c>
       <c r="G11">
-        <v>0.0006740234843875903</v>
+        <v>0.0007625219121048961</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.05102710592101189</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02986244529849014</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -885,34 +945,40 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.328571152713948</v>
+        <v>5.821453138132654</v>
       </c>
       <c r="C12">
-        <v>2.117427780801279</v>
+        <v>1.71081905899149</v>
       </c>
       <c r="D12">
-        <v>0.5885073197268582</v>
+        <v>0.2378295168972926</v>
       </c>
       <c r="E12">
-        <v>2.964870090642748</v>
+        <v>0.8095450099342685</v>
       </c>
       <c r="F12">
-        <v>12.06264309303924</v>
+        <v>6.621540193137264</v>
       </c>
       <c r="G12">
-        <v>0.0006691567471939022</v>
+        <v>0.0007639042150792652</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08537059510579326</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.02834500312373667</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -932,34 +998,40 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.275554054881241</v>
+        <v>5.769062860697261</v>
       </c>
       <c r="C13">
-        <v>2.101670983166912</v>
+        <v>1.681431827745541</v>
       </c>
       <c r="D13">
-        <v>0.58442696306318</v>
+        <v>0.1489218976295632</v>
       </c>
       <c r="E13">
-        <v>2.941323476956214</v>
+        <v>0.4192333535295205</v>
       </c>
       <c r="F13">
-        <v>11.97905445325648</v>
+        <v>5.257492853800528</v>
       </c>
       <c r="G13">
-        <v>0.0006702099212943329</v>
+        <v>0.0007670939994285801</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1363447470369579</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.02441139653021018</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -979,34 +1051,40 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.104356758336053</v>
+        <v>5.653258874752623</v>
       </c>
       <c r="C14">
-        <v>2.05084853859745</v>
+        <v>1.640501665964337</v>
       </c>
       <c r="D14">
-        <v>0.571268457492522</v>
+        <v>0.09914364752189897</v>
       </c>
       <c r="E14">
-        <v>2.86554799980604</v>
+        <v>0.2200208786317432</v>
       </c>
       <c r="F14">
-        <v>11.70919345391218</v>
+        <v>4.320288365004302</v>
       </c>
       <c r="G14">
-        <v>0.0006736252978828791</v>
+        <v>0.0007700778533965794</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.18241339872894</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.02096641771609153</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1026,34 +1104,40 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.00074807254731</v>
+        <v>5.587027398541977</v>
       </c>
       <c r="C15">
-        <v>2.020133084844645</v>
+        <v>1.621696695691526</v>
       </c>
       <c r="D15">
-        <v>0.5633178486194481</v>
+        <v>0.08790478637317278</v>
       </c>
       <c r="E15">
-        <v>2.819877994524219</v>
+        <v>0.180148105521539</v>
       </c>
       <c r="F15">
-        <v>11.54591643366126</v>
+        <v>4.065077586257132</v>
       </c>
       <c r="G15">
-        <v>0.000675703335704542</v>
+        <v>0.0007712711082461959</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1938160907104987</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01972158660848322</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1073,34 +1157,40 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.424223654653986</v>
+        <v>5.224085017559617</v>
       </c>
       <c r="C16">
-        <v>1.849782383921365</v>
+        <v>1.516492032032318</v>
       </c>
       <c r="D16">
-        <v>0.5192570740193219</v>
+        <v>0.08526566423042681</v>
       </c>
       <c r="E16">
-        <v>2.568268379124916</v>
+        <v>0.1700411051112454</v>
       </c>
       <c r="F16">
-        <v>10.63804998064421</v>
+        <v>3.828971836814645</v>
       </c>
       <c r="G16">
-        <v>0.0006874278300959101</v>
+        <v>0.00077591099244641</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1772398316277872</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01491254195543057</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1120,34 +1210,40 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.083985265651677</v>
+        <v>5.007352928785792</v>
       </c>
       <c r="C17">
-        <v>1.74967925505041</v>
+        <v>1.457340512143503</v>
       </c>
       <c r="D17">
-        <v>0.4933995490309258</v>
+        <v>0.1063005318635462</v>
       </c>
       <c r="E17">
-        <v>2.421703187807424</v>
+        <v>0.2527426306022065</v>
       </c>
       <c r="F17">
-        <v>10.10289414216493</v>
+        <v>4.119620197415884</v>
       </c>
       <c r="G17">
-        <v>0.0006944852374395349</v>
+        <v>0.0007779609381707517</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1380845818779335</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01298819220147251</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1167,34 +1263,40 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.892560823670976</v>
+        <v>4.891181072940014</v>
       </c>
       <c r="C18">
-        <v>1.693493160134778</v>
+        <v>1.426784906721878</v>
       </c>
       <c r="D18">
-        <v>0.4788997599790434</v>
+        <v>0.1630917184647416</v>
       </c>
       <c r="E18">
-        <v>2.339843746202689</v>
+        <v>0.488672800946965</v>
       </c>
       <c r="F18">
-        <v>9.802041018714419</v>
+        <v>4.989782952390868</v>
       </c>
       <c r="G18">
-        <v>0.0006985048257280441</v>
+        <v>0.0007777175351106891</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08624958060428156</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0128610273449894</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1214,34 +1316,40 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.828425562121311</v>
+        <v>4.865410637195282</v>
       </c>
       <c r="C19">
-        <v>1.674689419313893</v>
+        <v>1.433989826580387</v>
       </c>
       <c r="D19">
-        <v>0.4740495448535285</v>
+        <v>0.2585924094822332</v>
       </c>
       <c r="E19">
-        <v>2.312511968272219</v>
+        <v>0.9316599478342198</v>
       </c>
       <c r="F19">
-        <v>9.701283292199292</v>
+        <v>6.311405617291229</v>
       </c>
       <c r="G19">
-        <v>0.0006998598190865405</v>
+        <v>0.0007753471943131185</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04486607482094485</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01491509726212481</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1261,34 +1369,40 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.119748412428692</v>
+        <v>5.100185226391659</v>
       </c>
       <c r="C20">
-        <v>1.760186838715697</v>
+        <v>1.532472938516833</v>
       </c>
       <c r="D20">
-        <v>0.4961123540601022</v>
+        <v>0.4702190910753643</v>
       </c>
       <c r="E20">
-        <v>2.437044104630658</v>
+        <v>1.945769640609583</v>
       </c>
       <c r="F20">
-        <v>10.15912097007671</v>
+        <v>9.0203272447026</v>
       </c>
       <c r="G20">
-        <v>0.0006937382734403594</v>
+        <v>0.0007668416119520997</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.03244554102579755</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02379408360536761</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1308,34 +1422,40 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.154374863364637</v>
+        <v>5.784892976581773</v>
       </c>
       <c r="C21">
-        <v>2.065688090290337</v>
+        <v>1.750257957264921</v>
       </c>
       <c r="D21">
-        <v>0.5751101848300664</v>
+        <v>0.5534414014092022</v>
       </c>
       <c r="E21">
-        <v>2.887646484235404</v>
+        <v>2.318371252717682</v>
       </c>
       <c r="F21">
-        <v>11.78802886964667</v>
+        <v>10.45960704905036</v>
       </c>
       <c r="G21">
-        <v>0.0006726251112156297</v>
+        <v>0.000756201365715177</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0464444912688986</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.03888522512563775</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1355,34 +1475,40 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.884855886698745</v>
+        <v>6.238143054835405</v>
       </c>
       <c r="C22">
-        <v>2.283282165834066</v>
+        <v>1.888477988335353</v>
       </c>
       <c r="D22">
-        <v>0.6314726412728078</v>
+        <v>0.6034973891750326</v>
       </c>
       <c r="E22">
-        <v>3.214297175114268</v>
+        <v>2.513470465521181</v>
       </c>
       <c r="F22">
-        <v>12.94011826465407</v>
+        <v>11.35561038052936</v>
       </c>
       <c r="G22">
-        <v>0.0006582287118990811</v>
+        <v>0.0007494717359220136</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.05622256578920748</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.05032041316143676</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1402,34 +1528,40 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.489036152901463</v>
+        <v>5.996341369730999</v>
       </c>
       <c r="C23">
-        <v>2.165170641705231</v>
+        <v>1.808243448853432</v>
       </c>
       <c r="D23">
-        <v>0.600872616121336</v>
+        <v>0.5820632899846885</v>
       </c>
       <c r="E23">
-        <v>3.03637255775223</v>
+        <v>2.409407682906746</v>
       </c>
       <c r="F23">
-        <v>12.31568343274768</v>
+        <v>10.93547678253219</v>
       </c>
       <c r="G23">
-        <v>0.0006659818291808603</v>
+        <v>0.0007529736297253577</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.05097258498324031</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.04393539907997379</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1449,34 +1581,40 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.103567020224034</v>
+        <v>5.093396454990398</v>
       </c>
       <c r="C24">
-        <v>1.755432162945965</v>
+        <v>1.522929633599688</v>
       </c>
       <c r="D24">
-        <v>0.4948847683158704</v>
+        <v>0.494095960497134</v>
       </c>
       <c r="E24">
-        <v>2.430101090143168</v>
+        <v>2.024357664267967</v>
       </c>
       <c r="F24">
-        <v>10.13367983991688</v>
+        <v>9.282577626360364</v>
       </c>
       <c r="G24">
-        <v>0.0006940760912558396</v>
+        <v>0.0007664096614360714</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.03328234609949288</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02388743652415215</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1496,34 +1634,40 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.76892253653881</v>
+        <v>4.142656613778001</v>
       </c>
       <c r="C25">
-        <v>1.365482018976479</v>
+        <v>1.229542174013773</v>
       </c>
       <c r="D25">
-        <v>0.3945066067678624</v>
+        <v>0.4026513398619613</v>
       </c>
       <c r="E25">
-        <v>1.867542477264166</v>
+        <v>1.625711697670212</v>
       </c>
       <c r="F25">
-        <v>8.040232194133921</v>
+        <v>7.560761790821061</v>
       </c>
       <c r="G25">
-        <v>0.0007229166982805069</v>
+        <v>0.0007810655889403182</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01826779157226266</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.009293847328576632</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_9_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_0/res_line/pl_mw.xlsx
@@ -427,43 +427,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.457262170408171</v>
+        <v>1.101275654079501</v>
       </c>
       <c r="C2">
-        <v>1.007702210158641</v>
+        <v>0.08445188921687219</v>
       </c>
       <c r="D2">
-        <v>0.3492156199738474</v>
+        <v>0.02776715460236545</v>
       </c>
       <c r="E2">
-        <v>1.343180230842464</v>
+        <v>0.04050247491356451</v>
       </c>
       <c r="F2">
-        <v>6.463794665469322</v>
+        <v>1.748826202551683</v>
       </c>
       <c r="G2">
-        <v>0.0007918837209675011</v>
+        <v>1.498820550819858</v>
       </c>
       <c r="H2">
-        <v>0.009995295743722019</v>
+        <v>0.02959398662645474</v>
       </c>
       <c r="I2">
-        <v>0.002670933310996659</v>
+        <v>0.04258766848001017</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9925520031292905</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.07309430288443863</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8969209204041704</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1524290226101002</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -480,43 +480,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.997853015548628</v>
+        <v>0.9627377089899483</v>
       </c>
       <c r="C3">
-        <v>0.869853693225707</v>
+        <v>0.07673188251621355</v>
       </c>
       <c r="D3">
-        <v>0.3064966316520383</v>
+        <v>0.02431779593750605</v>
       </c>
       <c r="E3">
-        <v>1.155751310872887</v>
+        <v>0.03674313781975869</v>
       </c>
       <c r="F3">
-        <v>5.654258087503649</v>
+        <v>1.661533148389637</v>
       </c>
       <c r="G3">
-        <v>0.0007995267261627653</v>
+        <v>1.421143582568547</v>
       </c>
       <c r="H3">
-        <v>0.00566132105441941</v>
+        <v>0.03523965354584835</v>
       </c>
       <c r="I3">
-        <v>0.0006838291904367466</v>
+        <v>0.04956001605307403</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.9598053088124772</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0675281700898509</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7804142449179494</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1341272434672831</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -533,43 +533,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.717878933285135</v>
+        <v>0.8776866243974268</v>
       </c>
       <c r="C4">
-        <v>0.7870470786523356</v>
+        <v>0.07205637888142036</v>
       </c>
       <c r="D4">
-        <v>0.2802437474734631</v>
+        <v>0.02223026700075792</v>
       </c>
       <c r="E4">
-        <v>1.042418103720038</v>
+        <v>0.03442614592107951</v>
       </c>
       <c r="F4">
-        <v>5.159655295851422</v>
+        <v>1.608003426558042</v>
       </c>
       <c r="G4">
-        <v>0.00080432863316101</v>
+        <v>1.373422510632423</v>
       </c>
       <c r="H4">
-        <v>0.003562661497822361</v>
+        <v>0.03908550389980281</v>
       </c>
       <c r="I4">
-        <v>0.0004342247631967666</v>
+        <v>0.05430023649454885</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.939746154486869</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.06405456378271879</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7091717536941644</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1229808406250541</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -586,43 +586,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.604150420224698</v>
+        <v>0.8426884463302144</v>
       </c>
       <c r="C5">
-        <v>0.7552167163809997</v>
+        <v>0.07031912395294171</v>
       </c>
       <c r="D5">
-        <v>0.2683125171909211</v>
+        <v>0.02145994430847509</v>
       </c>
       <c r="E5">
-        <v>0.9965441341777392</v>
+        <v>0.03346095268117821</v>
       </c>
       <c r="F5">
-        <v>4.944718871251297</v>
+        <v>1.584059182156579</v>
       </c>
       <c r="G5">
-        <v>0.0008063365970838446</v>
+        <v>1.3517535142052</v>
       </c>
       <c r="H5">
-        <v>0.00283109922356406</v>
+        <v>0.04075804107518199</v>
       </c>
       <c r="I5">
-        <v>0.000622890166188661</v>
+        <v>0.05646021485543518</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9304500677435072</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.06252926832616623</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6805692058259183</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1186525085266013</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -639,43 +639,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.585207879043878</v>
+        <v>0.8364671859047519</v>
       </c>
       <c r="C6">
-        <v>0.7518079961090791</v>
+        <v>0.07022195725193825</v>
       </c>
       <c r="D6">
-        <v>0.2648516623235935</v>
+        <v>0.02142223322842796</v>
       </c>
       <c r="E6">
-        <v>0.9888719871438241</v>
+        <v>0.03327807767114699</v>
       </c>
       <c r="F6">
-        <v>4.892255946361189</v>
+        <v>1.577468181413707</v>
       </c>
       <c r="G6">
-        <v>0.0008066988388415279</v>
+        <v>1.345456170783152</v>
       </c>
       <c r="H6">
-        <v>0.002711539273524188</v>
+        <v>0.04105708517881923</v>
       </c>
       <c r="I6">
-        <v>0.0007586302123687716</v>
+        <v>0.05697481376816071</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.9275253586898771</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.06215900123655871</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.676271386999133</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1181717247738661</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -692,43 +692,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.716100113317282</v>
+        <v>0.8760907036875096</v>
       </c>
       <c r="C7">
-        <v>0.7916813407236987</v>
+        <v>0.0725534283131779</v>
       </c>
       <c r="D7">
-        <v>0.2760110113271139</v>
+        <v>0.02246528629283517</v>
       </c>
       <c r="E7">
-        <v>1.041580167724106</v>
+        <v>0.03435178009651274</v>
       </c>
       <c r="F7">
-        <v>5.110605349627804</v>
+        <v>1.600536675474316</v>
       </c>
       <c r="G7">
-        <v>0.0008044293528601984</v>
+        <v>1.365758430178872</v>
       </c>
       <c r="H7">
-        <v>0.00353482695453966</v>
+        <v>0.03914917453510713</v>
       </c>
       <c r="I7">
-        <v>0.0006621355425160402</v>
+        <v>0.05471646700445909</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.9358497618637358</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.06371633851092895</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7100102404061204</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1235700878555264</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -745,43 +745,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.297930760598206</v>
+        <v>1.051987155789988</v>
       </c>
       <c r="C8">
-        <v>0.9664754913100921</v>
+        <v>0.08247070600808115</v>
       </c>
       <c r="D8">
-        <v>0.3289524093292329</v>
+        <v>0.02689814062480167</v>
       </c>
       <c r="E8">
-        <v>1.277802295241244</v>
+        <v>0.0391261677804291</v>
       </c>
       <c r="F8">
-        <v>6.121670233424283</v>
+        <v>1.709267911693601</v>
       </c>
       <c r="G8">
-        <v>0.0007945947571169861</v>
+        <v>1.462291399072143</v>
       </c>
       <c r="H8">
-        <v>0.00834023203055928</v>
+        <v>0.03150709736033797</v>
       </c>
       <c r="I8">
-        <v>0.001998973943032389</v>
+        <v>0.04535642321617228</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.9762776784317424</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07076392335160264</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8583061285230826</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.146961955946594</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -798,43 +798,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.461276162754871</v>
+        <v>1.399463102931037</v>
       </c>
       <c r="C9">
-        <v>1.317628976875312</v>
+        <v>0.1016132998264681</v>
       </c>
       <c r="D9">
-        <v>0.4409129175473083</v>
+        <v>0.03541062003513673</v>
       </c>
       <c r="E9">
-        <v>1.758791490145597</v>
+        <v>0.04855217261871303</v>
       </c>
       <c r="F9">
-        <v>8.221729476999883</v>
+        <v>1.936164939233748</v>
       </c>
       <c r="G9">
-        <v>0.0007759650060087116</v>
+        <v>1.66490207322687</v>
       </c>
       <c r="H9">
-        <v>0.02293966575955908</v>
+        <v>0.0196151336590602</v>
       </c>
       <c r="I9">
-        <v>0.01318788530029646</v>
+        <v>0.0302215029166808</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.062795076450158</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.08474290489696301</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.149741250789702</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1924846199784866</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -851,43 +851,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.332556541617578</v>
+        <v>1.652215359775568</v>
       </c>
       <c r="C10">
-        <v>1.589096750276838</v>
+        <v>0.1176179022985124</v>
       </c>
       <c r="D10">
-        <v>0.5003877811189454</v>
+        <v>0.04171561838003868</v>
       </c>
       <c r="E10">
-        <v>2.021280822810638</v>
+        <v>0.05342410143376775</v>
       </c>
       <c r="F10">
-        <v>9.52940342855976</v>
+        <v>2.064445017548522</v>
       </c>
       <c r="G10">
-        <v>0.0007632755018147897</v>
+        <v>1.776808846663357</v>
       </c>
       <c r="H10">
-        <v>0.03654587955837574</v>
+        <v>0.01350100683356636</v>
       </c>
       <c r="I10">
-        <v>0.02786243332301552</v>
+        <v>0.02201332731723848</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.10792522299684</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09085576446199894</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.36962402603487</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2199098545953717</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -904,43 +904,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.696287717332439</v>
+        <v>1.740225740057838</v>
       </c>
       <c r="C11">
-        <v>1.68929629314573</v>
+        <v>0.1373657920589579</v>
       </c>
       <c r="D11">
-        <v>0.3475534396946358</v>
+        <v>0.04270116333593421</v>
       </c>
       <c r="E11">
-        <v>1.319623735495057</v>
+        <v>0.03997867590524251</v>
       </c>
       <c r="F11">
-        <v>7.984121445527933</v>
+        <v>1.811588011508647</v>
       </c>
       <c r="G11">
-        <v>0.0007625219121048961</v>
+        <v>1.534851627911081</v>
       </c>
       <c r="H11">
-        <v>0.05102710592101189</v>
+        <v>0.03173424669546421</v>
       </c>
       <c r="I11">
-        <v>0.02986244529849014</v>
+        <v>0.02074952000771102</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.9803298832929954</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06676713146386959</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.496419155908569</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.176167712983478</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -957,43 +957,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.821453138132654</v>
+        <v>1.762202521322394</v>
       </c>
       <c r="C12">
-        <v>1.71081905899149</v>
+        <v>0.1518745503302199</v>
       </c>
       <c r="D12">
-        <v>0.2378295168972926</v>
+        <v>0.04174167065401235</v>
       </c>
       <c r="E12">
-        <v>0.8095450099342685</v>
+        <v>0.0304055534008203</v>
       </c>
       <c r="F12">
-        <v>6.621540193137264</v>
+        <v>1.596334429924966</v>
       </c>
       <c r="G12">
-        <v>0.0007639042150792652</v>
+        <v>1.333306943825846</v>
       </c>
       <c r="H12">
-        <v>0.08537059510579326</v>
+        <v>0.07077844871241012</v>
       </c>
       <c r="I12">
-        <v>0.02834500312373667</v>
+        <v>0.02055279991425429</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.8760064485652208</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.05428294141207068</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.555911854026448</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1370821672723253</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1010,43 +1010,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.769062860697261</v>
+        <v>1.732568457593629</v>
       </c>
       <c r="C13">
-        <v>1.681431827745541</v>
+        <v>0.1638361008656375</v>
       </c>
       <c r="D13">
-        <v>0.1489218976295632</v>
+        <v>0.03962020149047873</v>
       </c>
       <c r="E13">
-        <v>0.4192333535295205</v>
+        <v>0.02318500582889271</v>
       </c>
       <c r="F13">
-        <v>5.257492853800528</v>
+        <v>1.386725616771287</v>
       </c>
       <c r="G13">
-        <v>0.0007670939994285801</v>
+        <v>1.139890356982519</v>
       </c>
       <c r="H13">
-        <v>0.1363447470369579</v>
+        <v>0.12756925529726</v>
       </c>
       <c r="I13">
-        <v>0.02441139653021018</v>
+        <v>0.02164039723798794</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7776910982249774</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.04943791473668213</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.568356659500864</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1005915587176105</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1063,43 +1063,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.653258874752623</v>
+        <v>1.688205784757201</v>
       </c>
       <c r="C14">
-        <v>1.640501665964337</v>
+        <v>0.1714940717795486</v>
       </c>
       <c r="D14">
-        <v>0.09914364752189897</v>
+        <v>0.03768762573425022</v>
       </c>
       <c r="E14">
-        <v>0.2200208786317432</v>
+        <v>0.01958645517386826</v>
       </c>
       <c r="F14">
-        <v>4.320288365004302</v>
+        <v>1.243928072972651</v>
       </c>
       <c r="G14">
-        <v>0.0007700778533965794</v>
+        <v>1.009494980557022</v>
       </c>
       <c r="H14">
-        <v>0.18241339872894</v>
+        <v>0.1779473605335227</v>
       </c>
       <c r="I14">
-        <v>0.02096641771609153</v>
+        <v>0.02312074160552413</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7121354571658998</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.05062508627981543</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.556166331129077</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07722896624430575</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1116,43 +1116,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.587027398541977</v>
+        <v>1.666069232973143</v>
       </c>
       <c r="C15">
-        <v>1.621696695691526</v>
+        <v>0.1728922715343373</v>
       </c>
       <c r="D15">
-        <v>0.08790478637317278</v>
+        <v>0.03707457729583297</v>
       </c>
       <c r="E15">
-        <v>0.180148105521539</v>
+        <v>0.01886084324577153</v>
       </c>
       <c r="F15">
-        <v>4.065077586257132</v>
+        <v>1.206865266307503</v>
       </c>
       <c r="G15">
-        <v>0.0007712711082461959</v>
+        <v>0.9758592783856983</v>
       </c>
       <c r="H15">
-        <v>0.1938160907104987</v>
+        <v>0.1909465789700704</v>
       </c>
       <c r="I15">
-        <v>0.01972158660848322</v>
+        <v>0.02394589905444633</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6956434128334195</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.0514274170220439</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.543525401209791</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07168861542716343</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1169,43 +1169,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.224085017559617</v>
+        <v>1.562912045645419</v>
       </c>
       <c r="C16">
-        <v>1.516492032032318</v>
+        <v>0.1635111917774026</v>
       </c>
       <c r="D16">
-        <v>0.08526566423042681</v>
+        <v>0.03497308246966213</v>
       </c>
       <c r="E16">
-        <v>0.1700411051112454</v>
+        <v>0.01843860432788968</v>
       </c>
       <c r="F16">
-        <v>3.828971836814645</v>
+        <v>1.19385734531312</v>
       </c>
       <c r="G16">
-        <v>0.00077591099244641</v>
+        <v>0.9661666243027014</v>
       </c>
       <c r="H16">
-        <v>0.1772398316277872</v>
+        <v>0.1807676175884154</v>
       </c>
       <c r="I16">
-        <v>0.01491254195543057</v>
+        <v>0.0273392700224937</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6953467617698408</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.04988109192957069</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.445979848713989</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06874030547406562</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1222,43 +1222,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.007352928785792</v>
+        <v>1.507450162811352</v>
       </c>
       <c r="C17">
-        <v>1.457340512143503</v>
+        <v>0.1521724886674747</v>
       </c>
       <c r="D17">
-        <v>0.1063005318635462</v>
+        <v>0.0344007487012945</v>
       </c>
       <c r="E17">
-        <v>0.2527426306022065</v>
+        <v>0.01973859696582769</v>
       </c>
       <c r="F17">
-        <v>4.119620197415884</v>
+        <v>1.257636031169113</v>
       </c>
       <c r="G17">
-        <v>0.0007779609381707517</v>
+        <v>1.025883774897835</v>
       </c>
       <c r="H17">
-        <v>0.1380845818779335</v>
+        <v>0.1444424473821471</v>
       </c>
       <c r="I17">
-        <v>0.01298819220147251</v>
+        <v>0.02922331215172669</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.7290030800967884</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.04723889893544264</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.377955767711114</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0783128856416937</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1275,43 +1275,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.891181072940014</v>
+        <v>1.487205913432746</v>
       </c>
       <c r="C18">
-        <v>1.426784906721878</v>
+        <v>0.1380446057327589</v>
       </c>
       <c r="D18">
-        <v>0.1630917184647416</v>
+        <v>0.0348498233695409</v>
       </c>
       <c r="E18">
-        <v>0.488672800946965</v>
+        <v>0.02404034873335004</v>
       </c>
       <c r="F18">
-        <v>4.989782952390868</v>
+        <v>1.407061130473878</v>
       </c>
       <c r="G18">
-        <v>0.0007777175351106891</v>
+        <v>1.164725553478476</v>
       </c>
       <c r="H18">
-        <v>0.08624958060428156</v>
+        <v>0.09189941705393068</v>
       </c>
       <c r="I18">
-        <v>0.0128610273449894</v>
+        <v>0.0294420509538087</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.801920446379782</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.04758714182761004</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.326553699937023</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1018352556688811</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1328,43 +1328,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.865410637195282</v>
+        <v>1.494214480363354</v>
       </c>
       <c r="C19">
-        <v>1.433989826580387</v>
+        <v>0.1256460987376613</v>
       </c>
       <c r="D19">
-        <v>0.2585924094822332</v>
+        <v>0.03652899888265182</v>
       </c>
       <c r="E19">
-        <v>0.9316599478342198</v>
+        <v>0.03243859456328835</v>
       </c>
       <c r="F19">
-        <v>6.311405617291229</v>
+        <v>1.616989302746276</v>
       </c>
       <c r="G19">
-        <v>0.0007753471943131185</v>
+        <v>1.359713553378469</v>
       </c>
       <c r="H19">
-        <v>0.04486607482094485</v>
+        <v>0.04560585722578736</v>
       </c>
       <c r="I19">
-        <v>0.01491509726212481</v>
+        <v>0.02887012592672189</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.9020109341258973</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.05649123150509894</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.295046059936539</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1396055225052635</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1381,43 +1381,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.100185226391659</v>
+        <v>1.581952260166304</v>
       </c>
       <c r="C20">
-        <v>1.532472938516833</v>
+        <v>0.1151507176029938</v>
       </c>
       <c r="D20">
-        <v>0.4702190910753643</v>
+        <v>0.04082253574424755</v>
       </c>
       <c r="E20">
-        <v>1.945769640609583</v>
+        <v>0.05186715690589061</v>
       </c>
       <c r="F20">
-        <v>9.0203272447026</v>
+        <v>2.007194535487173</v>
       </c>
       <c r="G20">
-        <v>0.0007668416119520997</v>
+        <v>1.723272583824155</v>
       </c>
       <c r="H20">
-        <v>0.03244554102579755</v>
+        <v>0.0150300135565562</v>
       </c>
       <c r="I20">
-        <v>0.02379408360536761</v>
+        <v>0.02504553855298486</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.083804457945064</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08812564893759856</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.315655363809725</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2144313373635924</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1434,43 +1434,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.784892976581773</v>
+        <v>1.781500708600049</v>
       </c>
       <c r="C21">
-        <v>1.750257957264921</v>
+        <v>0.1255857523685648</v>
       </c>
       <c r="D21">
-        <v>0.5534414014092022</v>
+        <v>0.045975907927577</v>
       </c>
       <c r="E21">
-        <v>2.318371252717682</v>
+        <v>0.05878857037064122</v>
       </c>
       <c r="F21">
-        <v>10.45960704905036</v>
+        <v>2.166507252664871</v>
       </c>
       <c r="G21">
-        <v>0.000756201365715177</v>
+        <v>1.866747009971363</v>
       </c>
       <c r="H21">
-        <v>0.0464444912688986</v>
+        <v>0.01031780356902593</v>
       </c>
       <c r="I21">
-        <v>0.03888522512563775</v>
+        <v>0.01908477050680002</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.147635087405206</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09881589679304881</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.480388061224147</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2461213462567713</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1487,43 +1487,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.238143054835405</v>
+        <v>1.912409066634609</v>
       </c>
       <c r="C22">
-        <v>1.888477988335353</v>
+        <v>0.1324318566899336</v>
       </c>
       <c r="D22">
-        <v>0.6034973891750326</v>
+        <v>0.04892432322314022</v>
       </c>
       <c r="E22">
-        <v>2.513470465521181</v>
+        <v>0.06237615653942186</v>
       </c>
       <c r="F22">
-        <v>11.35561038052936</v>
+        <v>2.261951715108935</v>
       </c>
       <c r="G22">
-        <v>0.0007494717359220136</v>
+        <v>1.953111904052605</v>
       </c>
       <c r="H22">
-        <v>0.05622256578920748</v>
+        <v>0.007911748635897942</v>
       </c>
       <c r="I22">
-        <v>0.05032041316143676</v>
+        <v>0.01543120032334233</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.185642439989664</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1042843682956018</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.588533492716948</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.262558012330075</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1540,43 +1540,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.996341369730999</v>
+        <v>1.843922574320544</v>
       </c>
       <c r="C23">
-        <v>1.808243448853432</v>
+        <v>0.1281097926415384</v>
       </c>
       <c r="D23">
-        <v>0.5820632899846885</v>
+        <v>0.04704644524230872</v>
       </c>
       <c r="E23">
-        <v>2.409407682906746</v>
+        <v>0.06053438017566037</v>
       </c>
       <c r="F23">
-        <v>10.93547678253219</v>
+        <v>2.21932783179389</v>
       </c>
       <c r="G23">
-        <v>0.0007529736297253577</v>
+        <v>1.915615981220441</v>
       </c>
       <c r="H23">
-        <v>0.05097258498324031</v>
+        <v>0.009132220702440352</v>
       </c>
       <c r="I23">
-        <v>0.04393539907997379</v>
+        <v>0.01694530627816082</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.169708152302036</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1017485461909367</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.529293354459412</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2529790533678238</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1593,43 +1593,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.093396454990398</v>
+        <v>1.583095977629455</v>
       </c>
       <c r="C24">
-        <v>1.522929633599688</v>
+        <v>0.1130831459615251</v>
       </c>
       <c r="D24">
-        <v>0.494095960497134</v>
+        <v>0.0404902941468066</v>
       </c>
       <c r="E24">
-        <v>2.024357664267967</v>
+        <v>0.05346868770591762</v>
       </c>
       <c r="F24">
-        <v>9.282577626360364</v>
+        <v>2.045809311236908</v>
       </c>
       <c r="G24">
-        <v>0.0007664096614360714</v>
+        <v>1.760885288595659</v>
       </c>
       <c r="H24">
-        <v>0.03328234609949288</v>
+        <v>0.01470492198159751</v>
       </c>
       <c r="I24">
-        <v>0.02388743652415215</v>
+        <v>0.0243592919792528</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.102982689291878</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09151014693204118</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.308602393260145</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2182609711090606</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1646,43 +1646,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.142656613778001</v>
+        <v>1.303236828394631</v>
       </c>
       <c r="C25">
-        <v>1.229542174013773</v>
+        <v>0.09732165385729985</v>
       </c>
       <c r="D25">
-        <v>0.4026513398619613</v>
+        <v>0.03352881453209022</v>
       </c>
       <c r="E25">
-        <v>1.625711697670212</v>
+        <v>0.04589157688120515</v>
       </c>
       <c r="F25">
-        <v>7.560761790821061</v>
+        <v>1.861773341097006</v>
       </c>
       <c r="G25">
-        <v>0.0007810655889403182</v>
+        <v>1.596749308855024</v>
       </c>
       <c r="H25">
-        <v>0.01826779157226266</v>
+        <v>0.02252443318472186</v>
       </c>
       <c r="I25">
-        <v>0.009293847328576632</v>
+        <v>0.03449564999337706</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.032562797439908</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08042165109742427</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.072747458119579</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1812604743500117</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_9_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.101275654079501</v>
+        <v>1.053725041216438</v>
       </c>
       <c r="C2">
-        <v>0.08445188921687219</v>
+        <v>0.09390011128847675</v>
       </c>
       <c r="D2">
-        <v>0.02776715460236545</v>
+        <v>0.03954527732068414</v>
       </c>
       <c r="E2">
-        <v>0.04050247491356451</v>
+        <v>0.03920484748311992</v>
       </c>
       <c r="F2">
-        <v>1.748826202551683</v>
+        <v>1.418479070878419</v>
       </c>
       <c r="G2">
-        <v>1.498820550819858</v>
+        <v>1.168551362690224</v>
       </c>
       <c r="H2">
-        <v>0.02959398662645474</v>
+        <v>0.02319950798735659</v>
       </c>
       <c r="I2">
-        <v>0.04258766848001017</v>
+        <v>0.03091550702387202</v>
       </c>
       <c r="J2">
-        <v>0.9925520031292905</v>
+        <v>0.7984081671227727</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.07309430288443863</v>
+        <v>0.3413934221524926</v>
       </c>
       <c r="M2">
-        <v>0.8969209204041704</v>
+        <v>0.3292255956189187</v>
       </c>
       <c r="N2">
-        <v>0.1524290226101002</v>
+        <v>0.06057502667407633</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9542023062018359</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1879655814654058</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9627377089899483</v>
+        <v>0.9207106380635821</v>
       </c>
       <c r="C3">
-        <v>0.07673188251621355</v>
+        <v>0.08182320204348059</v>
       </c>
       <c r="D3">
-        <v>0.02431779593750605</v>
+        <v>0.03436946519647677</v>
       </c>
       <c r="E3">
-        <v>0.03674313781975869</v>
+        <v>0.03586985187235925</v>
       </c>
       <c r="F3">
-        <v>1.661533148389637</v>
+        <v>1.366656691765655</v>
       </c>
       <c r="G3">
-        <v>1.421143582568547</v>
+        <v>1.131569793585115</v>
       </c>
       <c r="H3">
-        <v>0.03523965354584835</v>
+        <v>0.02771920346184253</v>
       </c>
       <c r="I3">
-        <v>0.04956001605307403</v>
+        <v>0.03603040203182051</v>
       </c>
       <c r="J3">
-        <v>0.9598053088124772</v>
+        <v>0.7769646636853054</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0675281700898509</v>
+        <v>0.3400963027292647</v>
       </c>
       <c r="M3">
-        <v>0.7804142449179494</v>
+        <v>0.3188135984441622</v>
       </c>
       <c r="N3">
-        <v>0.1341272434672831</v>
+        <v>0.05684149522920734</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8288090641379426</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1654421045380445</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8776866243974268</v>
+        <v>0.8388727598652395</v>
       </c>
       <c r="C4">
-        <v>0.07205637888142036</v>
+        <v>0.0745756279784402</v>
       </c>
       <c r="D4">
-        <v>0.02223026700075792</v>
+        <v>0.03124036984669232</v>
       </c>
       <c r="E4">
-        <v>0.03442614592107951</v>
+        <v>0.03381004937545562</v>
       </c>
       <c r="F4">
-        <v>1.608003426558042</v>
+        <v>1.334770102447962</v>
       </c>
       <c r="G4">
-        <v>1.373422510632423</v>
+        <v>1.108940163813301</v>
       </c>
       <c r="H4">
-        <v>0.03908550389980281</v>
+        <v>0.03080468132063818</v>
       </c>
       <c r="I4">
-        <v>0.05430023649454885</v>
+        <v>0.03952862491504705</v>
       </c>
       <c r="J4">
-        <v>0.939746154486869</v>
+        <v>0.763549863489942</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06405456378271879</v>
+        <v>0.3389893718155719</v>
       </c>
       <c r="M4">
-        <v>0.7091717536941644</v>
+        <v>0.3130828555391716</v>
       </c>
       <c r="N4">
-        <v>0.1229808406250541</v>
+        <v>0.05449103794316201</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7520638072226404</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1517400195605063</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8426884463302144</v>
+        <v>0.8051835185900416</v>
       </c>
       <c r="C5">
-        <v>0.07031912395294171</v>
+        <v>0.07187722010448283</v>
       </c>
       <c r="D5">
-        <v>0.02145994430847509</v>
+        <v>0.03005248238203251</v>
       </c>
       <c r="E5">
-        <v>0.03346095268117821</v>
+        <v>0.03295179559511929</v>
       </c>
       <c r="F5">
-        <v>1.584059182156579</v>
+        <v>1.32008916378156</v>
       </c>
       <c r="G5">
-        <v>1.3517535142052</v>
+        <v>1.098064907935509</v>
       </c>
       <c r="H5">
-        <v>0.04075804107518199</v>
+        <v>0.03214769310669774</v>
       </c>
       <c r="I5">
-        <v>0.05646021485543518</v>
+        <v>0.0411644639996247</v>
       </c>
       <c r="J5">
-        <v>0.9304500677435072</v>
+        <v>0.7571351833695417</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06252926832616623</v>
+        <v>0.3379134009358395</v>
       </c>
       <c r="M5">
-        <v>0.6805692058259183</v>
+        <v>0.3105063751314923</v>
       </c>
       <c r="N5">
-        <v>0.1186525085266013</v>
+        <v>0.05344772848803458</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.721172471128682</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1463705490113441</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8364671859047519</v>
+        <v>0.7992285102979793</v>
       </c>
       <c r="C6">
-        <v>0.07022195725193825</v>
+        <v>0.07169729365311639</v>
       </c>
       <c r="D6">
-        <v>0.02142223322842796</v>
+        <v>0.02994854487399579</v>
       </c>
       <c r="E6">
-        <v>0.03327807767114699</v>
+        <v>0.0327901351678257</v>
       </c>
       <c r="F6">
-        <v>1.577468181413707</v>
+        <v>1.315616107150298</v>
       </c>
       <c r="G6">
-        <v>1.345456170783152</v>
+        <v>1.094225059131091</v>
       </c>
       <c r="H6">
-        <v>0.04105708517881923</v>
+        <v>0.03238745419672906</v>
       </c>
       <c r="I6">
-        <v>0.05697481376816071</v>
+        <v>0.04160024059124989</v>
       </c>
       <c r="J6">
-        <v>0.9275253586898771</v>
+        <v>0.75498518014453</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.06215900123655871</v>
+        <v>0.3370637749296606</v>
       </c>
       <c r="M6">
-        <v>0.676271386999133</v>
+        <v>0.3095912361017525</v>
       </c>
       <c r="N6">
-        <v>0.1181717247738661</v>
+        <v>0.05318757267952634</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.716449458590688</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1457066621468428</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8760907036875096</v>
+        <v>0.8375982308099026</v>
       </c>
       <c r="C7">
-        <v>0.0725534283131779</v>
+        <v>0.07512317848125605</v>
       </c>
       <c r="D7">
-        <v>0.02246528629283517</v>
+        <v>0.03168682611735818</v>
       </c>
       <c r="E7">
-        <v>0.03435178009651274</v>
+        <v>0.0337798290183251</v>
       </c>
       <c r="F7">
-        <v>1.600536675474316</v>
+        <v>1.325962019487989</v>
       </c>
       <c r="G7">
-        <v>1.365758430178872</v>
+        <v>1.105673818599158</v>
       </c>
       <c r="H7">
-        <v>0.03914917453510713</v>
+        <v>0.03087136343019425</v>
       </c>
       <c r="I7">
-        <v>0.05471646700445909</v>
+        <v>0.03998444364290865</v>
       </c>
       <c r="J7">
-        <v>0.9358497618637358</v>
+        <v>0.7529607429581233</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06371633851092895</v>
+        <v>0.3363477874678864</v>
       </c>
       <c r="M7">
-        <v>0.7100102404061204</v>
+        <v>0.3110106795386756</v>
       </c>
       <c r="N7">
-        <v>0.1235700878555264</v>
+        <v>0.05418184585240127</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7525471140327227</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1523388381604178</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.051987155789988</v>
+        <v>1.007105985849392</v>
       </c>
       <c r="C8">
-        <v>0.08247070600808115</v>
+        <v>0.09019441280532448</v>
       </c>
       <c r="D8">
-        <v>0.02689814062480167</v>
+        <v>0.03879668655196866</v>
       </c>
       <c r="E8">
-        <v>0.0391261677804291</v>
+        <v>0.03810040698840389</v>
       </c>
       <c r="F8">
-        <v>1.709267911693601</v>
+        <v>1.383283455498983</v>
       </c>
       <c r="G8">
-        <v>1.462291399072143</v>
+        <v>1.156673476718211</v>
       </c>
       <c r="H8">
-        <v>0.03150709736033797</v>
+        <v>0.0247744859615584</v>
       </c>
       <c r="I8">
-        <v>0.04535642321617228</v>
+        <v>0.03315924784765389</v>
       </c>
       <c r="J8">
-        <v>0.9762776784317424</v>
+        <v>0.7625317510936895</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.07076392335160264</v>
+        <v>0.3361849322635777</v>
       </c>
       <c r="M8">
-        <v>0.8583061285230826</v>
+        <v>0.3213065139964542</v>
       </c>
       <c r="N8">
-        <v>0.146961955946594</v>
+        <v>0.05879391584942439</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.911684702645033</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1811751965733137</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.399463102931037</v>
+        <v>1.339666451987455</v>
       </c>
       <c r="C9">
-        <v>0.1016132998264681</v>
+        <v>0.1204114285149132</v>
       </c>
       <c r="D9">
-        <v>0.03541062003513673</v>
+        <v>0.0519281953325148</v>
       </c>
       <c r="E9">
-        <v>0.04855217261871303</v>
+        <v>0.04646564455380897</v>
       </c>
       <c r="F9">
-        <v>1.936164939233748</v>
+        <v>1.516310175337239</v>
       </c>
       <c r="G9">
-        <v>1.66490207322687</v>
+        <v>1.258580989076094</v>
       </c>
       <c r="H9">
-        <v>0.0196151336590602</v>
+        <v>0.01528756771784606</v>
       </c>
       <c r="I9">
-        <v>0.0302215029166808</v>
+        <v>0.02202522566123211</v>
       </c>
       <c r="J9">
-        <v>1.062795076450158</v>
+        <v>0.8114678276733969</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.08474290489696301</v>
+        <v>0.3394080440848626</v>
       </c>
       <c r="M9">
-        <v>1.149741250789702</v>
+        <v>0.3517877068472473</v>
       </c>
       <c r="N9">
-        <v>0.1924846199784866</v>
+        <v>0.06803172772768917</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.224876039371253</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2375228871497228</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.652215359775568</v>
+        <v>1.582410355271747</v>
       </c>
       <c r="C10">
-        <v>0.1176179022985124</v>
+        <v>0.1444100864225959</v>
       </c>
       <c r="D10">
-        <v>0.04171561838003868</v>
+        <v>0.0627132691637442</v>
       </c>
       <c r="E10">
-        <v>0.05342410143376775</v>
+        <v>0.05086946647480062</v>
       </c>
       <c r="F10">
-        <v>2.064445017548522</v>
+        <v>1.569146257254644</v>
       </c>
       <c r="G10">
-        <v>1.776808846663357</v>
+        <v>1.323764077774399</v>
       </c>
       <c r="H10">
-        <v>0.01350100683356636</v>
+        <v>0.01053012337423143</v>
       </c>
       <c r="I10">
-        <v>0.02201332731723848</v>
+        <v>0.01620122863255524</v>
       </c>
       <c r="J10">
-        <v>1.10792522299684</v>
+        <v>0.7924913464408831</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.09085576446199894</v>
+        <v>0.3302831941535231</v>
       </c>
       <c r="M10">
-        <v>1.36962402603487</v>
+        <v>0.3662948473128012</v>
       </c>
       <c r="N10">
-        <v>0.2199098545953717</v>
+        <v>0.07137764617441178</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.457970258804067</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2719947979311286</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.740225740057838</v>
+        <v>1.676929233186598</v>
       </c>
       <c r="C11">
-        <v>0.1373657920589579</v>
+        <v>0.1665409327610092</v>
       </c>
       <c r="D11">
-        <v>0.04270116333593421</v>
+        <v>0.06517846805756733</v>
       </c>
       <c r="E11">
-        <v>0.03997867590524251</v>
+        <v>0.03851119520576773</v>
       </c>
       <c r="F11">
-        <v>1.811588011508647</v>
+        <v>1.349726479290155</v>
       </c>
       <c r="G11">
-        <v>1.534851627911081</v>
+        <v>1.177777715528364</v>
       </c>
       <c r="H11">
-        <v>0.03173424669546421</v>
+        <v>0.02895068635007192</v>
       </c>
       <c r="I11">
-        <v>0.02074952000771102</v>
+        <v>0.01560706445131022</v>
       </c>
       <c r="J11">
-        <v>0.9803298832929954</v>
+        <v>0.6332139726689121</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.06676713146386959</v>
+        <v>0.275193014928643</v>
       </c>
       <c r="M11">
-        <v>1.496419155908569</v>
+        <v>0.3140453887626151</v>
       </c>
       <c r="N11">
-        <v>0.176167712983478</v>
+        <v>0.05424311510246405</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.578966613831483</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2203162988379717</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.762202521322394</v>
+        <v>1.706058674939669</v>
       </c>
       <c r="C12">
-        <v>0.1518745503302199</v>
+        <v>0.1803158078085829</v>
       </c>
       <c r="D12">
-        <v>0.04174167065401235</v>
+        <v>0.06361311877846276</v>
       </c>
       <c r="E12">
-        <v>0.0304055534008203</v>
+        <v>0.02961519780086164</v>
       </c>
       <c r="F12">
-        <v>1.596334429924966</v>
+        <v>1.184528998898301</v>
       </c>
       <c r="G12">
-        <v>1.333306943825846</v>
+        <v>1.047159422406409</v>
       </c>
       <c r="H12">
-        <v>0.07077844871241012</v>
+        <v>0.06795172279353778</v>
       </c>
       <c r="I12">
-        <v>0.02055279991425429</v>
+        <v>0.01546290896729463</v>
       </c>
       <c r="J12">
-        <v>0.8760064485652208</v>
+        <v>0.5449485127532796</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.05428294141207068</v>
+        <v>0.2397850947289726</v>
       </c>
       <c r="M12">
-        <v>1.555911854026448</v>
+        <v>0.275147799058221</v>
       </c>
       <c r="N12">
-        <v>0.1370821672723253</v>
+        <v>0.04755449299170467</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.63130244934456</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1735203804053995</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.732568457593629</v>
+        <v>1.684245525725458</v>
       </c>
       <c r="C13">
-        <v>0.1638361008656375</v>
+        <v>0.1900400411802394</v>
       </c>
       <c r="D13">
-        <v>0.03962020149047873</v>
+        <v>0.05876302183623494</v>
       </c>
       <c r="E13">
-        <v>0.02318500582889271</v>
+        <v>0.0228534447279376</v>
       </c>
       <c r="F13">
-        <v>1.386725616771287</v>
+        <v>1.045380183520621</v>
       </c>
       <c r="G13">
-        <v>1.139890356982519</v>
+        <v>0.908664247574734</v>
       </c>
       <c r="H13">
-        <v>0.12756925529726</v>
+        <v>0.1244870127632538</v>
       </c>
       <c r="I13">
-        <v>0.02164039723798794</v>
+        <v>0.0161793791784639</v>
       </c>
       <c r="J13">
-        <v>0.7776910982249774</v>
+        <v>0.5004841521020538</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.04943791473668213</v>
+        <v>0.2140843343411376</v>
       </c>
       <c r="M13">
-        <v>1.568356659500864</v>
+        <v>0.2429807828537989</v>
       </c>
       <c r="N13">
-        <v>0.1005915587176105</v>
+        <v>0.04775892640965296</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.63564454273714</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1291077086601859</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.688205784757201</v>
+        <v>1.645662714018698</v>
       </c>
       <c r="C14">
-        <v>0.1714940717795486</v>
+        <v>0.1953874801994857</v>
       </c>
       <c r="D14">
-        <v>0.03768762573425022</v>
+        <v>0.05408305719171125</v>
       </c>
       <c r="E14">
-        <v>0.01958645517386826</v>
+        <v>0.0195205229706259</v>
       </c>
       <c r="F14">
-        <v>1.243928072972651</v>
+        <v>0.9581218013264277</v>
       </c>
       <c r="G14">
-        <v>1.009494980557022</v>
+        <v>0.810686899932719</v>
       </c>
       <c r="H14">
-        <v>0.1779473605335227</v>
+        <v>0.1745849957502372</v>
       </c>
       <c r="I14">
-        <v>0.02312074160552413</v>
+        <v>0.01721072928356371</v>
       </c>
       <c r="J14">
-        <v>0.7121354571658998</v>
+        <v>0.4838416586294798</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.05062508627981543</v>
+        <v>0.1996528287209109</v>
       </c>
       <c r="M14">
-        <v>1.556166331129077</v>
+        <v>0.2233938435541276</v>
       </c>
       <c r="N14">
-        <v>0.07722896624430575</v>
+        <v>0.0518239027227505</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.617274366516739</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1003479572870845</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.666069232973143</v>
+        <v>1.625105186868666</v>
       </c>
       <c r="C15">
-        <v>0.1728922715343373</v>
+        <v>0.1960721029152808</v>
       </c>
       <c r="D15">
-        <v>0.03707457729583297</v>
+        <v>0.05244098573986378</v>
       </c>
       <c r="E15">
-        <v>0.01886084324577153</v>
+        <v>0.01886196708312626</v>
       </c>
       <c r="F15">
-        <v>1.206865266307503</v>
+        <v>0.938409469946933</v>
       </c>
       <c r="G15">
-        <v>0.9758592783856983</v>
+        <v>0.7839410090846854</v>
       </c>
       <c r="H15">
-        <v>0.1909465789700704</v>
+        <v>0.1874542532807908</v>
       </c>
       <c r="I15">
-        <v>0.02394589905444633</v>
+        <v>0.0178422754454628</v>
       </c>
       <c r="J15">
-        <v>0.6956434128334195</v>
+        <v>0.4846948507987747</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.0514274170220439</v>
+        <v>0.1969039801531522</v>
       </c>
       <c r="M15">
-        <v>1.543525401209791</v>
+        <v>0.2190872316073111</v>
       </c>
       <c r="N15">
-        <v>0.07168861542716343</v>
+        <v>0.05320707302066197</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.602894221729883</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.09341261107536525</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.562912045645419</v>
+        <v>1.523108531604805</v>
       </c>
       <c r="C16">
-        <v>0.1635111917774026</v>
+        <v>0.1854350338025483</v>
       </c>
       <c r="D16">
-        <v>0.03497308246966213</v>
+        <v>0.0472345686556821</v>
       </c>
       <c r="E16">
-        <v>0.01843860432788968</v>
+        <v>0.01848525426027958</v>
       </c>
       <c r="F16">
-        <v>1.19385734531312</v>
+        <v>0.9586289684624418</v>
       </c>
       <c r="G16">
-        <v>0.9661666243027014</v>
+        <v>0.7663703985916612</v>
       </c>
       <c r="H16">
-        <v>0.1807676175884154</v>
+        <v>0.1766534084126619</v>
       </c>
       <c r="I16">
-        <v>0.0273392700224937</v>
+        <v>0.02024870321686745</v>
       </c>
       <c r="J16">
-        <v>0.6953467617698408</v>
+        <v>0.5338141104950296</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.04988109192957069</v>
+        <v>0.2054054978291475</v>
       </c>
       <c r="M16">
-        <v>1.445979848713989</v>
+        <v>0.2245027903453689</v>
       </c>
       <c r="N16">
-        <v>0.06874030547406562</v>
+        <v>0.05125162934237792</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.50354344552261</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.08919985444476453</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.507450162811352</v>
+        <v>1.465745767330844</v>
       </c>
       <c r="C17">
-        <v>0.1521724886674747</v>
+        <v>0.1741235927718492</v>
       </c>
       <c r="D17">
-        <v>0.0344007487012945</v>
+        <v>0.04599889302778593</v>
       </c>
       <c r="E17">
-        <v>0.01973859696582769</v>
+        <v>0.0196401643313413</v>
       </c>
       <c r="F17">
-        <v>1.257636031169113</v>
+        <v>1.018324565114845</v>
       </c>
       <c r="G17">
-        <v>1.025883774897835</v>
+        <v>0.8049786564019428</v>
       </c>
       <c r="H17">
-        <v>0.1444424473821471</v>
+        <v>0.1400009930593313</v>
       </c>
       <c r="I17">
-        <v>0.02922331215172669</v>
+        <v>0.02161903402532328</v>
       </c>
       <c r="J17">
-        <v>0.7290030800967884</v>
+        <v>0.5796215565635521</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.04723889893544264</v>
+        <v>0.2199625495345998</v>
       </c>
       <c r="M17">
-        <v>1.377955767711114</v>
+        <v>0.2381579842059018</v>
       </c>
       <c r="N17">
-        <v>0.0783128856416937</v>
+        <v>0.0471092186830937</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.437022150674949</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1005083681517149</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.487205913432746</v>
+        <v>1.440408127348803</v>
       </c>
       <c r="C18">
-        <v>0.1380446057327589</v>
+        <v>0.1609270893061563</v>
       </c>
       <c r="D18">
-        <v>0.0348498233695409</v>
+        <v>0.04730186820910376</v>
       </c>
       <c r="E18">
-        <v>0.02404034873335004</v>
+        <v>0.0235308221528383</v>
       </c>
       <c r="F18">
-        <v>1.407061130473878</v>
+        <v>1.132607216674515</v>
       </c>
       <c r="G18">
-        <v>1.164725553478476</v>
+        <v>0.9000717959325328</v>
       </c>
       <c r="H18">
-        <v>0.09189941705393068</v>
+        <v>0.08741143484755298</v>
       </c>
       <c r="I18">
-        <v>0.0294420509538087</v>
+        <v>0.02167864570713274</v>
       </c>
       <c r="J18">
-        <v>0.801920446379782</v>
+        <v>0.6406366952728462</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.04758714182761004</v>
+        <v>0.2451154305290011</v>
       </c>
       <c r="M18">
-        <v>1.326553699937023</v>
+        <v>0.2638826734516151</v>
       </c>
       <c r="N18">
-        <v>0.1018352556688811</v>
+        <v>0.04436409473556502</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.390656964642972</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.128856565956653</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.494214480363354</v>
+        <v>1.440342189585067</v>
       </c>
       <c r="C19">
-        <v>0.1256460987376613</v>
+        <v>0.1497615161904378</v>
       </c>
       <c r="D19">
-        <v>0.03652899888265182</v>
+        <v>0.05085754261624942</v>
       </c>
       <c r="E19">
-        <v>0.03243859456328835</v>
+        <v>0.03125624754312639</v>
       </c>
       <c r="F19">
-        <v>1.616989302746276</v>
+        <v>1.284831020988506</v>
       </c>
       <c r="G19">
-        <v>1.359713553378469</v>
+        <v>1.032670543219183</v>
       </c>
       <c r="H19">
-        <v>0.04560585722578736</v>
+        <v>0.04134629034324888</v>
       </c>
       <c r="I19">
-        <v>0.02887012592672189</v>
+        <v>0.02136700170944561</v>
       </c>
       <c r="J19">
-        <v>0.9020109341258973</v>
+        <v>0.712931012419773</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.05649123150509894</v>
+        <v>0.2777679536561521</v>
       </c>
       <c r="M19">
-        <v>1.295046059936539</v>
+        <v>0.2982599443153795</v>
       </c>
       <c r="N19">
-        <v>0.1396055225052635</v>
+        <v>0.04841781195045147</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.36642132310979</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1742106074373311</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.581952260166304</v>
+        <v>1.514835193703533</v>
       </c>
       <c r="C20">
-        <v>0.1151507176029938</v>
+        <v>0.1411470410078692</v>
       </c>
       <c r="D20">
-        <v>0.04082253574424755</v>
+        <v>0.05987171723145224</v>
       </c>
       <c r="E20">
-        <v>0.05186715690589061</v>
+        <v>0.04935241738499307</v>
       </c>
       <c r="F20">
-        <v>2.007194535487173</v>
+        <v>1.54830557262315</v>
       </c>
       <c r="G20">
-        <v>1.723272583824155</v>
+        <v>1.27992062786528</v>
       </c>
       <c r="H20">
-        <v>0.0150300135565562</v>
+        <v>0.01168206598608235</v>
       </c>
       <c r="I20">
-        <v>0.02504553855298486</v>
+        <v>0.01873024038020787</v>
       </c>
       <c r="J20">
-        <v>1.083804457945064</v>
+        <v>0.8139046640298204</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.08812564893759856</v>
+        <v>0.3304404079970595</v>
       </c>
       <c r="M20">
-        <v>1.315655363809725</v>
+        <v>0.3599172971129079</v>
       </c>
       <c r="N20">
-        <v>0.2144313373635924</v>
+        <v>0.0699067280027954</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.400970700582462</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2643384616712581</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.781500708600049</v>
+        <v>1.707551931377822</v>
       </c>
       <c r="C21">
-        <v>0.1255857523685648</v>
+        <v>0.1545821007147055</v>
       </c>
       <c r="D21">
-        <v>0.045975907927577</v>
+        <v>0.0734089503834241</v>
       </c>
       <c r="E21">
-        <v>0.05878857037064122</v>
+        <v>0.05638029628624253</v>
       </c>
       <c r="F21">
-        <v>2.166507252664871</v>
+        <v>1.576129154066422</v>
       </c>
       <c r="G21">
-        <v>1.866747009971363</v>
+        <v>1.419049852935387</v>
       </c>
       <c r="H21">
-        <v>0.01031780356902593</v>
+        <v>0.008077937738397489</v>
       </c>
       <c r="I21">
-        <v>0.01908477050680002</v>
+        <v>0.01463150919306777</v>
       </c>
       <c r="J21">
-        <v>1.147635087405206</v>
+        <v>0.6948315935787548</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.09881589679304881</v>
+        <v>0.3206400499508888</v>
       </c>
       <c r="M21">
-        <v>1.480388061224147</v>
+        <v>0.3681009813220442</v>
       </c>
       <c r="N21">
-        <v>0.2461213462567713</v>
+        <v>0.07574421454829761</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.5730578893195</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3047007327204199</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.912409066634609</v>
+        <v>1.834345255873188</v>
       </c>
       <c r="C22">
-        <v>0.1324318566899336</v>
+        <v>0.1629688536811074</v>
       </c>
       <c r="D22">
-        <v>0.04892432322314022</v>
+        <v>0.08224526263025922</v>
       </c>
       <c r="E22">
-        <v>0.06237615653942186</v>
+        <v>0.06017449847200496</v>
       </c>
       <c r="F22">
-        <v>2.261951715108935</v>
+        <v>1.583855037725925</v>
       </c>
       <c r="G22">
-        <v>1.953111904052605</v>
+        <v>1.512722985685457</v>
       </c>
       <c r="H22">
-        <v>0.007911748635897942</v>
+        <v>0.006252380305412308</v>
       </c>
       <c r="I22">
-        <v>0.01543120032334233</v>
+        <v>0.01194338128325345</v>
       </c>
       <c r="J22">
-        <v>1.185642439989664</v>
+        <v>0.6165400237661913</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1042843682956018</v>
+        <v>0.3124904059443097</v>
       </c>
       <c r="M22">
-        <v>1.588533492716948</v>
+        <v>0.3715030125639629</v>
       </c>
       <c r="N22">
-        <v>0.262558012330075</v>
+        <v>0.07833382777878839</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.685061146057876</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3262770229231933</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.843922574320544</v>
+        <v>1.767456771459649</v>
       </c>
       <c r="C23">
-        <v>0.1281097926415384</v>
+        <v>0.1579444074047274</v>
       </c>
       <c r="D23">
-        <v>0.04704644524230872</v>
+        <v>0.07652986765115344</v>
       </c>
       <c r="E23">
-        <v>0.06053438017566037</v>
+        <v>0.05810836773268946</v>
       </c>
       <c r="F23">
-        <v>2.21932783179389</v>
+        <v>1.593428296302562</v>
       </c>
       <c r="G23">
-        <v>1.915615981220441</v>
+        <v>1.461657408176791</v>
       </c>
       <c r="H23">
-        <v>0.009132220702440352</v>
+        <v>0.007166395091230737</v>
       </c>
       <c r="I23">
-        <v>0.01694530627816082</v>
+        <v>0.01288697307245457</v>
       </c>
       <c r="J23">
-        <v>1.169708152302036</v>
+        <v>0.6750319898334283</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1017485461909367</v>
+        <v>0.319983041345921</v>
       </c>
       <c r="M23">
-        <v>1.529293354459412</v>
+        <v>0.3734463771752203</v>
       </c>
       <c r="N23">
-        <v>0.2529790533678238</v>
+        <v>0.07736215187863138</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.624513792627454</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.313825969106091</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.583095977629455</v>
+        <v>1.514989537907439</v>
       </c>
       <c r="C24">
-        <v>0.1130831459615251</v>
+        <v>0.138482122059699</v>
       </c>
       <c r="D24">
-        <v>0.0404902941468066</v>
+        <v>0.05967489240028101</v>
       </c>
       <c r="E24">
-        <v>0.05346868770591762</v>
+        <v>0.05083492458753724</v>
       </c>
       <c r="F24">
-        <v>2.045809311236908</v>
+        <v>1.576874653126296</v>
       </c>
       <c r="G24">
-        <v>1.760885288595659</v>
+        <v>1.305837118826503</v>
       </c>
       <c r="H24">
-        <v>0.01470492198159751</v>
+        <v>0.0113950676306583</v>
       </c>
       <c r="I24">
-        <v>0.0243592919792528</v>
+        <v>0.01798177850691118</v>
       </c>
       <c r="J24">
-        <v>1.102982689291878</v>
+        <v>0.828596165444111</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.09151014693204118</v>
+        <v>0.3374321110140457</v>
       </c>
       <c r="M24">
-        <v>1.308602393260145</v>
+        <v>0.3672034546868943</v>
       </c>
       <c r="N24">
-        <v>0.2182609711090606</v>
+        <v>0.07238502305252936</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.394770957726763</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2691742190292246</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.303236828394631</v>
+        <v>1.247710981529707</v>
       </c>
       <c r="C25">
-        <v>0.09732165385729985</v>
+        <v>0.1136825853573242</v>
       </c>
       <c r="D25">
-        <v>0.03352881453209022</v>
+        <v>0.04849472906449392</v>
       </c>
       <c r="E25">
-        <v>0.04589157688120515</v>
+        <v>0.04406625199349534</v>
       </c>
       <c r="F25">
-        <v>1.861773341097006</v>
+        <v>1.474878818608829</v>
       </c>
       <c r="G25">
-        <v>1.596749308855024</v>
+        <v>1.217535906281796</v>
       </c>
       <c r="H25">
-        <v>0.02252443318472186</v>
+        <v>0.017584245494637</v>
       </c>
       <c r="I25">
-        <v>0.03449564999337706</v>
+        <v>0.02535137293966194</v>
       </c>
       <c r="J25">
-        <v>1.032562797439908</v>
+        <v>0.80386066074513</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.08042165109742427</v>
+        <v>0.337068687313014</v>
       </c>
       <c r="M25">
-        <v>1.072747458119579</v>
+        <v>0.3412672240622925</v>
       </c>
       <c r="N25">
-        <v>0.1812604743500117</v>
+        <v>0.06524781758179188</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.142155178128036</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2232180091316422</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
